--- a/imageCreationExcel/back/115/115_1.xlsx
+++ b/imageCreationExcel/back/115/115_1.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26.38217510206079</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.073229428331909</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6666643324771625</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_brightness26.382_contrast1.073_sharpness0.667.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7605969560463844</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.02514731754715574</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.807602694933957</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_C_gamma0.761_sharpness0.025_equalization9.808.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.39232053975064</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.072675078557051</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9020035499072537</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_7_brightness19.392_contrast1.073_gamma0.902.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.949524343934142</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5140548966420453</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.922586990972396</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_contrast0.95_gamma0.514_equalization6.923.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25.77390708679798</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.564398152699603</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2151910582366139</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_0_brightness25.774_gamma0.564_sharpness0.215.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9145703399632233</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.044771962945713</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>29.69158704217412</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_9_contrast0.915_gamma1.045_equalization29.692.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8366655314389473</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6086291031973854</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.4257707085282918</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_9_contrast0.837_gamma0.609_sharpness0.426.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,16 +780,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7.493976544364297</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5621056564044561</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.01127932880336553</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_brightness7.494_gamma0.562_sharpness0.011.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9239010113644154</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8892255367236018</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>11.05874008760671</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_contrast0.924_sharpness0.889_equalization11.059.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.041114824335462</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8891029775075581</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>26.62777678322113</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_2_contrast1.041_gamma0.889_equalization26.628.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16.32023712353244</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.087989308819637</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3287006145332043</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_P_brightness16.32_contrast1.088_sharpness0.329.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.106470797973526</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8637448013396991</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8497391586854441</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_C_contrast1.106_gamma0.864_sharpness0.85.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23.85118432867094</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.025952143526141</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.01275080737119036</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_brightness23.851_gamma1.026_sharpness0.013.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,24 +1032,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8938802442300753</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.2031183108302837</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.572923204169301</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_E_gamma0.894_sharpness0.203_equalization5.573.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20.64380812842279</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8119649996456356</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9672155151101119</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_E_brightness20.644_contrast0.812_gamma0.967.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9740125394209954</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8332938431346695</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7808623012631686</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_7_contrast0.974_gamma0.833_sharpness0.781.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20.90645163087604</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5338110680960124</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.4725993054679613</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_C_brightness20.906_gamma0.534_sharpness0.473.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.76567805484823</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.005624040506159</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9023139696144953</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_E_brightness18.766_contrast1.006_gamma0.902.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1247,11 +1247,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.199031235834357</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5478773379823775</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.075226670127282</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_contrast1.199_gamma0.548_sharpness0.075.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.678849424342914</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8866675462267979</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.017482463622885</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_2_brightness1.679_contrast0.887_gamma1.017.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7872092364286716</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.636115705011144</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13.27600493053097</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_gamma0.787_sharpness0.636_equalization13.276.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.14396437697094</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.08101415639330851</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17.79590511733299</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_P_contrast1.144_sharpness0.081_equalization17.796.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.144397838237572</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7421084451920386</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>16.87624554481769</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_C_contrast1.144_sharpness0.742_equalization16.876.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.126488350561368</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.3205133747686278</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>19.10740978163138</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_contrast1.126_sharpness0.321_equalization19.107.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8380837945896795</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0491147390755678</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9.697043323691926</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_contrast0.838_sharpness0.049_equalization9.697.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,15 +1545,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5.045049024941476</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6006479605964499</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.4736313761820692</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_brightness5.045_gamma0.601_sharpness0.474.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,24 +1578,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9899361713646391</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7161075161692527</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>24.02201233368755</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_0_contrast0.99_gamma0.716_equalization24.022.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5531859401736904</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.2262888490412277</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7.880721873168661</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_7_gamma0.553_sharpness0.226_equalization7.881.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,30 +1671,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.111990518677758</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5625330293126476</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>17.05070019925213</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_E_contrast1.112_sharpness0.563_equalization17.051.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9421151306379348</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5885323185513496</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>25.28636010820763</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_S_gamma0.942_sharpness0.589_equalization25.286.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8464777375160182</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.6105965808857148</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.01178652809884</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_contrast0.846_gamma0.611_equalization14.012.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>28.37143165657118</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9209503318419825</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.9452790042849736</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_8_brightness28.371_contrast0.921_sharpness0.945.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>14.77660814852482</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9412999284409286</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.3941301561480902</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_S_brightness14.777_contrast0.941_sharpness0.394.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12.55032968899534</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8205855675273066</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.7172993862006752</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_P_brightness12.55_contrast0.821_gamma0.717.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22.51703019511062</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9573312585431544</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.6795950203464266</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_brightness22.517_gamma0.957_sharpness0.68.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,15 +1965,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>26.82885972929412</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8819371492711736</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.05091663917247287</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_7_brightness26.829_contrast0.882_sharpness0.051.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.935914722120728</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.05092878305831</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.7992657043358972</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_0_brightness4.936_contrast1.051_sharpness0.799.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9367306364312536</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8053193681814514</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>13.59652463249756</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_I_contrast0.937_gamma0.805_equalization13.597.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9146064230430271</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8169451575431987</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>30.925484116625</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_1_contrast0.915_sharpness0.817_equalization30.925.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.093326372758983</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.286334002689642</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>18.19428072047313</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_1_contrast1.093_sharpness0.286_equalization18.194.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.134417636175545</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.091617199020657</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>19.20809248313683</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_9_contrast1.134_gamma1.092_equalization19.208.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,24 +2208,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.04540781463722</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9542800871609165</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.1885053640802511</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_I_contrast1.045_gamma0.954_sharpness0.189.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8004914528929161</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6244630354543309</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>22.55174932095617</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_9_contrast0.8_gamma0.624_equalization22.552.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7.523005448522891</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.6869771567664436</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.001777817968011412</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_1_brightness7.523_gamma0.687_sharpness0.002.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.066056663890746</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.4618668593787976</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5.913863644490713</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_S_gamma1.066_sharpness0.462_equalization5.914.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>21.99034989868364</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.194495279373713</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.8965889199005479</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_I_brightness21.99_contrast1.194_sharpness0.897.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9794738214947688</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5686842551827741</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>7.758429728381014</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_gamma0.979_sharpness0.569_equalization7.758.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,15 +2469,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9941522272648137</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.7034126376131238</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>11.94440957428167</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_E_contrast0.994_sharpness0.703_equalization11.944.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
